--- a/MainTop/07.11.2024/футболки.xlsx
+++ b/MainTop/07.11.2024/футболки.xlsx
@@ -20,18 +20,481 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Футболка Соник Ежик Sonic</t>
   </si>
   <si>
-    <t xml:space="preserve">Футболка Человек паук Spiderman</t>
-  </si>
-  <si>
     <t xml:space="preserve">Футболка Единорог</t>
   </si>
   <si>
     <t xml:space="preserve">Платье желтое</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Платье желтое р92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Платье желтое р98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Платье желтое р104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Платье желтое р110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Платье желтое р116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Платье желтое р122</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Футболка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Соник Ежик Sonic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> р98</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Футболка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Соник Ежик Sonic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> р104</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Футболка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Соник Ежик Sonic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> р110</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Футболка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Соник Ежик Sonic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> р116</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Футболка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Соник Ежик Sonic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> р122</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Футболка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Соник Ежик Sonic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> р128</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Футболка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Соник Ежик Sonic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> р134</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Футболка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Единорог</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> р98</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Футболка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Единорог</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> р104</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Футболка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Единорог</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> р110</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Футболка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Единорог</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> р116</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Футболка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Единорог</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> р122</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Футболка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Единорог</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> р128</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Футболка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Единорог</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> р134</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -41,7 +504,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -66,6 +529,20 @@
       <family val="0"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -75,10 +552,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF216BFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF216BFF"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -109,8 +597,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -123,6 +615,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF216BFF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -131,15 +683,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="N19" activeCellId="0" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.12"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -171,19 +723,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>13</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>801</v>
@@ -194,19 +746,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>13</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>801</v>
@@ -217,22 +769,169 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">SUM(F1:F3)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="B14" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <v>801</v>
+      <c r="B15" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="n">
+        <f aca="false">SUM(B4:B23)</f>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
